--- a/tech.xlsx
+++ b/tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Area de Trabalho\bot\pascal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AE3BBA-DD40-4CE9-9C53-03C0B7B743BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3362CD4-7DA6-4322-9348-36E435F2487D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{245A92C1-450E-49A4-BA30-1614CA839A21}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>COD</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>UN</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>CABO DE REDE</t>
+  </si>
+  <si>
+    <t>CPU RYZEN 5 3400G</t>
+  </si>
+  <si>
+    <t>MEMORIA RAM 8GB 3000MHZ</t>
   </si>
 </sst>
 </file>
@@ -421,9 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCFC1C2-A09F-472A-AFEC-06E40263CA84}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -469,7 +486,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -494,6 +511,93 @@
       </c>
       <c r="I2" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>340</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>600</v>
+      </c>
+      <c r="E4" s="2">
+        <v>650</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1270</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
